--- a/Documents/PPT 정리.xlsx
+++ b/Documents/PPT 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-3DGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724C633B-9E1A-493F-8A39-7A7340A902F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB1A5B1-D735-4D69-B6F2-259BEEA5C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="855" windowWidth="16920" windowHeight="15375" xr2:uid="{F191D83A-3937-465E-BEFA-EC82FE76A1F7}"/>
+    <workbookView xWindow="5550" yWindow="3150" windowWidth="28800" windowHeight="11295" xr2:uid="{F191D83A-3937-465E-BEFA-EC82FE76A1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>게임 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서머너즈 클랜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,21 +458,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC00C70-7DB1-4CAB-ABB0-165F044B0C92}">
-  <dimension ref="B2"/>
+  <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/PPT 정리.xlsx
+++ b/Documents/PPT 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-3DGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB1A5B1-D735-4D69-B6F2-259BEEA5C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56039084-95BE-4E4C-AEB5-EFFD78579685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="3150" windowWidth="28800" windowHeight="11295" xr2:uid="{F191D83A-3937-465E-BEFA-EC82FE76A1F7}"/>
+    <workbookView xWindow="23325" yWindow="2310" windowWidth="13200" windowHeight="12870" xr2:uid="{F191D83A-3937-465E-BEFA-EC82FE76A1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
